--- a/excel_data/2_PWA_AnimalFluency_WAB_NoID.xlsx
+++ b/excel_data/2_PWA_AnimalFluency_WAB_NoID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/c_hambric_bowdoin_edu/Documents/Desktop/Aphasia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/c_hambric_bowdoin_edu/Documents/Documents/AphasiaProject/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBD0C49-E0A9-4FA7-8D14-467D625B4A25}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466D2A95-1EE3-4364-850D-B23EC968526F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -1846,17 +1846,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5816FB-6309-44A3-8CEF-B77755E40B36}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="4" customWidth="1"/>
   </cols>
@@ -1869,13 +1869,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>19</v>
@@ -1891,14 +1891,14 @@
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="3">
-        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>26</v>
@@ -1914,14 +1914,14 @@
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>30</v>
@@ -1937,14 +1937,14 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>31</v>
@@ -1960,14 +1960,14 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="14">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="14">
-        <v>18</v>
       </c>
       <c r="F5" s="14">
         <v>31</v>
@@ -1983,14 +1983,14 @@
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
       </c>
       <c r="F6" s="3">
         <v>31</v>
@@ -2006,14 +2006,14 @@
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="4">
-        <v>13</v>
       </c>
       <c r="F7" s="4">
         <v>31</v>
@@ -2029,14 +2029,14 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>38</v>
@@ -2052,14 +2052,14 @@
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="4">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="4">
-        <v>15</v>
       </c>
       <c r="F9" s="4">
         <v>38</v>
@@ -2075,14 +2075,14 @@
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="4">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="4">
-        <v>12</v>
       </c>
       <c r="F10" s="4">
         <v>41</v>
@@ -2098,14 +2098,14 @@
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>14</v>
       </c>
       <c r="F11" s="3">
         <v>41</v>
@@ -2121,14 +2121,14 @@
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" s="25">
-        <v>12</v>
       </c>
       <c r="F12" s="25">
         <v>41</v>
@@ -2144,14 +2144,14 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="3">
-        <v>14</v>
       </c>
       <c r="F13" s="3">
         <v>42</v>
@@ -2167,14 +2167,14 @@
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="4">
-        <v>18</v>
       </c>
       <c r="F14" s="4">
         <v>42</v>
@@ -2190,14 +2190,14 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="4">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="4">
-        <v>16</v>
       </c>
       <c r="F15" s="4">
         <v>42</v>
@@ -2213,14 +2213,14 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12</v>
       </c>
       <c r="F16" s="3">
         <v>43</v>
@@ -2236,14 +2236,14 @@
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16</v>
       </c>
       <c r="F17" s="4">
         <v>44</v>
@@ -2259,14 +2259,14 @@
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18</v>
       </c>
       <c r="F18" s="3">
         <v>45</v>
@@ -2282,14 +2282,14 @@
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
       </c>
       <c r="F19" s="3">
         <v>45</v>
@@ -2305,14 +2305,14 @@
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="4">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="4">
-        <v>12</v>
       </c>
       <c r="F20" s="4">
         <v>45</v>
@@ -2328,14 +2328,14 @@
       <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="14">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="14">
-        <v>12</v>
       </c>
       <c r="F21" s="14">
         <v>45</v>
@@ -2351,14 +2351,14 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="3">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12</v>
       </c>
       <c r="F22" s="3">
         <v>45</v>
@@ -2374,14 +2374,14 @@
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E23" s="3">
-        <v>11</v>
       </c>
       <c r="F23" s="3">
         <f>2006-1960</f>
@@ -2399,14 +2399,14 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E24" s="3">
-        <v>16</v>
       </c>
       <c r="F24" s="3">
         <v>46</v>
@@ -2422,14 +2422,14 @@
       <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="3">
-        <v>12</v>
       </c>
       <c r="F25" s="3">
         <v>46</v>
@@ -2445,14 +2445,14 @@
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="4">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E26" s="4">
-        <v>13</v>
       </c>
       <c r="F26" s="4">
         <v>47</v>
@@ -2468,14 +2468,14 @@
       <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14</v>
       </c>
       <c r="F27" s="4">
         <v>47</v>
@@ -2491,14 +2491,14 @@
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="4">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E28" s="4">
-        <v>12</v>
       </c>
       <c r="F28" s="4">
         <v>48</v>
@@ -2514,14 +2514,14 @@
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>12</v>
       </c>
       <c r="F29" s="3">
         <v>48</v>
@@ -2537,14 +2537,14 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E30" s="3">
-        <v>12</v>
       </c>
       <c r="F30" s="3">
         <v>48</v>
@@ -2560,14 +2560,14 @@
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" s="3">
-        <v>12</v>
       </c>
       <c r="F31" s="3">
         <v>48</v>
@@ -2583,14 +2583,14 @@
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="4">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E32" s="4">
-        <v>14</v>
       </c>
       <c r="F32" s="4">
         <v>48</v>
@@ -2606,14 +2606,14 @@
       <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="4">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E33" s="4">
-        <v>14</v>
       </c>
       <c r="F33" s="4">
         <v>49</v>
@@ -2629,14 +2629,14 @@
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" s="3">
-        <v>14</v>
       </c>
       <c r="F34" s="3">
         <v>49</v>
@@ -2653,14 +2653,14 @@
       <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="11">
+        <v>12</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="E35" s="11">
-        <v>12</v>
       </c>
       <c r="F35" s="11">
         <v>49</v>
@@ -2676,14 +2676,14 @@
       <c r="B36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="9">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E36" s="9">
-        <v>12</v>
       </c>
       <c r="F36" s="9">
         <v>50</v>
@@ -2699,14 +2699,14 @@
       <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="4">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E37" s="4">
-        <v>12</v>
       </c>
       <c r="F37" s="4">
         <v>50</v>
@@ -2722,14 +2722,14 @@
       <c r="B38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="4">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E38" s="4">
-        <v>12</v>
       </c>
       <c r="F38" s="4">
         <v>50</v>
@@ -2745,14 +2745,14 @@
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="8">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E39" s="8">
-        <v>18</v>
       </c>
       <c r="F39" s="8">
         <v>51</v>
@@ -2768,14 +2768,14 @@
       <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="9">
+        <v>14</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E40" s="9">
-        <v>14</v>
       </c>
       <c r="F40" s="9">
         <v>51</v>
@@ -2791,14 +2791,14 @@
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="3">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E41" s="3">
-        <v>17</v>
       </c>
       <c r="F41" s="3">
         <v>51</v>
@@ -2814,14 +2814,14 @@
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="3">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E42" s="3">
-        <v>18</v>
       </c>
       <c r="F42" s="3">
         <v>51</v>
@@ -2838,14 +2838,14 @@
       <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="4">
+        <v>19</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E43" s="4">
-        <v>19</v>
       </c>
       <c r="F43" s="4">
         <v>51</v>
@@ -2861,14 +2861,14 @@
       <c r="B44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="4">
+        <v>18</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E44" s="4">
-        <v>18</v>
       </c>
       <c r="F44" s="4">
         <v>52</v>
@@ -2884,14 +2884,14 @@
       <c r="B45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="4">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E45" s="4">
-        <v>12</v>
       </c>
       <c r="F45" s="4">
         <v>53</v>
@@ -2907,14 +2907,14 @@
       <c r="B46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="3">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E46" s="3">
-        <v>17</v>
       </c>
       <c r="F46" s="3">
         <v>53</v>
@@ -2931,14 +2931,14 @@
       <c r="B47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="19">
+        <v>17</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="E47" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="E47" s="19">
-        <v>17</v>
       </c>
       <c r="F47" s="19">
         <v>53</v>
@@ -2955,14 +2955,14 @@
       <c r="B48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="3">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E48" s="3">
-        <v>16</v>
       </c>
       <c r="F48" s="3">
         <v>53</v>
@@ -2978,14 +2978,14 @@
       <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="4">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E49" s="4">
-        <v>12</v>
       </c>
       <c r="F49" s="4">
         <v>53</v>
@@ -3001,14 +3001,14 @@
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="4">
+        <v>15</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E50" s="4">
-        <v>15</v>
       </c>
       <c r="F50" s="4">
         <v>53</v>
@@ -3024,14 +3024,14 @@
       <c r="B51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="4">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E51" s="4">
-        <v>12</v>
       </c>
       <c r="F51" s="4">
         <v>53</v>
@@ -3047,14 +3047,14 @@
       <c r="B52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="17">
+        <v>16</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="E52" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="E52" s="17">
-        <v>16</v>
       </c>
       <c r="F52" s="17">
         <v>54</v>
@@ -3070,14 +3070,14 @@
       <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="3">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E53" s="3">
-        <v>16</v>
       </c>
       <c r="F53" s="3">
         <v>54</v>
@@ -3093,14 +3093,14 @@
       <c r="B54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="3">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E54" s="3">
-        <v>18</v>
       </c>
       <c r="F54" s="3">
         <v>54</v>
@@ -3116,14 +3116,14 @@
       <c r="B55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="11">
+        <v>14</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E55" s="11">
-        <v>14</v>
       </c>
       <c r="F55" s="11">
         <v>54</v>
@@ -3139,14 +3139,14 @@
       <c r="B56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="4">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E56" s="4">
-        <v>12</v>
       </c>
       <c r="F56" s="4">
         <v>54</v>
@@ -3162,14 +3162,14 @@
       <c r="B57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="4">
+        <v>16</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E57" s="4">
-        <v>16</v>
       </c>
       <c r="F57" s="4">
         <v>54</v>
@@ -3185,14 +3185,14 @@
       <c r="B58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="4">
+        <v>12</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E58" s="4">
-        <v>12</v>
       </c>
       <c r="F58" s="4">
         <v>54</v>
@@ -3208,14 +3208,14 @@
       <c r="B59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="3">
+        <v>12</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E59" s="3">
-        <v>12</v>
       </c>
       <c r="F59" s="3">
         <v>54</v>
@@ -3231,14 +3231,14 @@
       <c r="B60" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9">
+        <v>14</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E60" s="9">
-        <v>14</v>
       </c>
       <c r="F60" s="9">
         <v>55</v>
@@ -3254,14 +3254,14 @@
       <c r="B61" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="4">
+        <v>16</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E61" s="4">
-        <v>16</v>
       </c>
       <c r="F61" s="4">
         <v>55</v>
@@ -3277,14 +3277,14 @@
       <c r="B62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="3">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E62" s="3">
-        <v>12</v>
       </c>
       <c r="F62" s="3">
         <v>55</v>
@@ -3300,14 +3300,14 @@
       <c r="B63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="3">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E63" s="3">
-        <v>12</v>
       </c>
       <c r="F63" s="3">
         <v>55</v>
@@ -3323,14 +3323,14 @@
       <c r="B64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="3">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E64" s="3">
-        <v>12</v>
       </c>
       <c r="F64" s="3">
         <v>55</v>
@@ -3346,14 +3346,14 @@
       <c r="B65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4">
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E65" s="4">
-        <v>16</v>
       </c>
       <c r="F65" s="4">
         <v>55</v>
@@ -3369,14 +3369,14 @@
       <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="4">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E66" s="4">
-        <v>12</v>
       </c>
       <c r="F66" s="4">
         <v>55</v>
@@ -3392,14 +3392,14 @@
       <c r="B67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4">
+        <v>12</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E67" s="4">
-        <v>12</v>
       </c>
       <c r="F67" s="4">
         <v>55</v>
@@ -3415,14 +3415,14 @@
       <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="3">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E68" s="3">
-        <v>12</v>
       </c>
       <c r="F68" s="20">
         <v>56</v>
@@ -3438,14 +3438,14 @@
       <c r="B69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="4">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E69" s="4">
-        <v>21</v>
       </c>
       <c r="F69" s="4">
         <v>56</v>
@@ -3461,14 +3461,14 @@
       <c r="B70" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="4">
+        <v>15</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E70" s="4">
-        <v>15</v>
       </c>
       <c r="F70" s="4">
         <v>57</v>
@@ -3484,14 +3484,14 @@
       <c r="B71" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="8">
+        <v>13</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E71" s="8">
-        <v>13</v>
       </c>
       <c r="F71" s="8">
         <v>57</v>
@@ -3507,14 +3507,14 @@
       <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="4">
+        <v>12</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E72" s="4">
-        <v>12</v>
       </c>
       <c r="F72" s="4">
         <v>57</v>
@@ -3530,14 +3530,14 @@
       <c r="B73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="4">
+        <v>20</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E73" s="4">
-        <v>20</v>
       </c>
       <c r="F73" s="4">
         <v>57</v>
@@ -3553,14 +3553,14 @@
       <c r="B74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E74" s="4">
-        <v>12</v>
       </c>
       <c r="F74" s="4">
         <v>57</v>
@@ -3576,14 +3576,14 @@
       <c r="B75" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E75" s="9">
-        <v>12</v>
       </c>
       <c r="F75" s="9">
         <v>58</v>
@@ -3599,14 +3599,14 @@
       <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="3">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16</v>
       </c>
       <c r="F76" s="3">
         <v>58</v>
@@ -3622,14 +3622,14 @@
       <c r="B77" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="23">
+        <v>18</v>
+      </c>
+      <c r="D77" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="E77" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="E77" s="23">
-        <v>18</v>
       </c>
       <c r="F77" s="23">
         <v>58</v>
@@ -3645,14 +3645,14 @@
       <c r="B78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="4">
+        <v>15</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E78" s="4">
-        <v>15</v>
       </c>
       <c r="F78" s="4">
         <v>58</v>
@@ -3668,14 +3668,14 @@
       <c r="B79" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="18">
+        <v>15</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="E79" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="E79" s="18">
-        <v>15</v>
       </c>
       <c r="F79" s="18">
         <v>58</v>
@@ -3691,14 +3691,14 @@
       <c r="B80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="4">
+        <v>12</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E80" s="4">
-        <v>12</v>
       </c>
       <c r="F80" s="4">
         <v>58</v>
@@ -3712,14 +3712,14 @@
         <v>56</v>
       </c>
       <c r="B81" s="24"/>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="24">
+        <v>21</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="E81" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="E81" s="24">
-        <v>21</v>
       </c>
       <c r="F81" s="24">
         <v>58</v>
@@ -3735,14 +3735,14 @@
       <c r="B82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4">
+        <v>16</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E82" s="4">
-        <v>16</v>
       </c>
       <c r="F82" s="4">
         <v>58</v>
@@ -3758,14 +3758,14 @@
       <c r="B83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="3">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E83" s="3">
-        <v>16</v>
       </c>
       <c r="F83" s="3">
         <f>2006-1947</f>
@@ -3783,14 +3783,14 @@
       <c r="B84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="3">
+        <v>12</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E84" s="3">
-        <v>12</v>
       </c>
       <c r="F84" s="3">
         <v>59</v>
@@ -3806,14 +3806,14 @@
       <c r="B85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="3">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E85" s="3">
-        <v>12</v>
       </c>
       <c r="F85" s="3">
         <v>59</v>
@@ -3829,14 +3829,14 @@
       <c r="B86" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="3">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E86" s="3">
-        <v>12</v>
       </c>
       <c r="F86" s="20">
         <v>59</v>
@@ -3852,14 +3852,14 @@
       <c r="B87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="4">
+        <v>14</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E87" s="4">
-        <v>14</v>
       </c>
       <c r="F87" s="4">
         <v>59</v>
@@ -3875,14 +3875,14 @@
       <c r="B88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="4">
+        <v>14</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E88" s="4">
-        <v>14</v>
       </c>
       <c r="F88" s="4">
         <v>59</v>
@@ -3898,14 +3898,14 @@
       <c r="B89" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="3">
+        <v>12</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E89" s="3">
-        <v>12</v>
       </c>
       <c r="F89" s="3">
         <v>60</v>
@@ -3921,14 +3921,14 @@
       <c r="B90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="4">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E90" s="4">
-        <v>20</v>
       </c>
       <c r="F90" s="4">
         <v>60</v>
@@ -3944,14 +3944,14 @@
       <c r="B91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="4">
+        <v>21</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E91" s="4">
-        <v>21</v>
       </c>
       <c r="F91" s="4">
         <v>60</v>
@@ -3967,14 +3967,14 @@
       <c r="B92" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="10">
+        <v>17</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E92" s="10">
-        <v>17</v>
       </c>
       <c r="F92" s="10">
         <v>61</v>
@@ -3990,14 +3990,14 @@
       <c r="B93" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="3">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E93" s="3">
-        <v>21</v>
       </c>
       <c r="F93" s="3">
         <v>61</v>
@@ -4013,14 +4013,14 @@
       <c r="B94" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="3">
+        <v>19</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E94" s="3">
-        <v>19</v>
       </c>
       <c r="F94" s="3">
         <v>61</v>
@@ -4036,14 +4036,14 @@
       <c r="B95" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="4">
+        <v>12</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E95" s="4">
-        <v>12</v>
       </c>
       <c r="F95" s="4">
         <v>61</v>
@@ -4059,14 +4059,14 @@
       <c r="B96" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9">
+        <v>15</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E96" s="9">
-        <v>15</v>
       </c>
       <c r="F96" s="9">
         <v>62</v>
@@ -4082,14 +4082,14 @@
       <c r="B97" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="4">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E97" s="4">
-        <v>19</v>
       </c>
       <c r="F97" s="4">
         <v>62</v>
@@ -4105,14 +4105,14 @@
       <c r="B98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="4">
+        <v>12</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E98" s="4">
-        <v>12</v>
       </c>
       <c r="F98" s="4">
         <v>62</v>
@@ -4128,14 +4128,14 @@
       <c r="B99" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="4">
+        <v>12</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E99" s="4">
-        <v>12</v>
       </c>
       <c r="F99" s="4">
         <v>62</v>
@@ -4151,14 +4151,14 @@
       <c r="B100" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="4">
+        <v>15</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E100" s="4">
-        <v>15</v>
       </c>
       <c r="F100" s="4">
         <v>62</v>
@@ -4174,14 +4174,14 @@
       <c r="B101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="3">
+        <v>16</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E101" s="3">
-        <v>16</v>
       </c>
       <c r="F101" s="3">
         <f>2006-1943</f>
@@ -4198,14 +4198,14 @@
       <c r="B102" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="3">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E102" s="3">
-        <v>11</v>
       </c>
       <c r="F102" s="3">
         <v>63</v>
@@ -4221,14 +4221,14 @@
       <c r="B103" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="3">
+        <v>16</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E103" s="3">
-        <v>16</v>
       </c>
       <c r="F103" s="22">
         <v>63</v>
@@ -4244,14 +4244,14 @@
       <c r="B104" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="3">
+        <v>19</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E104" s="3">
-        <v>19</v>
       </c>
       <c r="F104" s="3">
         <v>64</v>
@@ -4267,14 +4267,14 @@
       <c r="B105" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="3">
+        <v>13</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E105" s="3">
-        <v>13</v>
       </c>
       <c r="F105" s="3">
         <v>64</v>
@@ -4290,14 +4290,14 @@
       <c r="B106" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="3">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E106" s="3">
-        <v>12</v>
       </c>
       <c r="F106" s="21">
         <v>64</v>
@@ -4313,14 +4313,14 @@
       <c r="B107" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3">
+        <v>12</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E107" s="3">
-        <v>12</v>
       </c>
       <c r="F107" s="3">
         <v>64</v>
@@ -4336,14 +4336,14 @@
       <c r="B108" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="4">
+        <v>12</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E108" s="4">
-        <v>12</v>
       </c>
       <c r="F108" s="4">
         <v>64</v>
@@ -4359,14 +4359,14 @@
       <c r="B109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="4">
+        <v>16</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E109" s="4">
-        <v>16</v>
       </c>
       <c r="F109" s="4">
         <v>64</v>
@@ -4382,14 +4382,14 @@
       <c r="B110" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9">
+        <v>16</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E110" s="9">
-        <v>16</v>
       </c>
       <c r="F110" s="9">
         <v>64</v>
@@ -4405,14 +4405,14 @@
       <c r="B111" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="26">
+        <v>14</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="E111" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="E111" s="26">
-        <v>14</v>
       </c>
       <c r="F111" s="26">
         <v>64</v>
@@ -4428,14 +4428,14 @@
       <c r="B112" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="25">
+        <v>12</v>
+      </c>
+      <c r="D112" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="E112" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="E112" s="25">
-        <v>12</v>
       </c>
       <c r="F112" s="25">
         <v>64</v>
@@ -4451,14 +4451,14 @@
       <c r="B113" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="11">
+        <v>19</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="E113" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="E113" s="11">
-        <v>19</v>
       </c>
       <c r="F113" s="11">
         <v>65</v>
@@ -4474,14 +4474,14 @@
       <c r="B114" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="3">
+        <v>12</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E114" s="3">
-        <v>12</v>
       </c>
       <c r="F114" s="3">
         <f>2006-1941</f>
@@ -4498,14 +4498,14 @@
       <c r="B115" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="3">
+        <v>12</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E115" s="3">
-        <v>12</v>
       </c>
       <c r="F115" s="20">
         <v>65</v>
@@ -4521,14 +4521,14 @@
       <c r="B116" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="4">
+        <v>18</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E116" s="4">
-        <v>18</v>
       </c>
       <c r="F116" s="4">
         <v>65</v>
@@ -4544,14 +4544,14 @@
       <c r="B117" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="4">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E117" s="4">
-        <v>14</v>
       </c>
       <c r="F117" s="4">
         <v>65</v>
@@ -4567,14 +4567,14 @@
       <c r="B118" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="4">
+        <v>12</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E118" s="4">
-        <v>12</v>
       </c>
       <c r="F118" s="4">
         <v>65</v>
@@ -4590,14 +4590,14 @@
       <c r="B119" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="4">
+        <v>18</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E119" s="4">
-        <v>18</v>
       </c>
       <c r="F119" s="4">
         <v>65</v>
@@ -4613,14 +4613,14 @@
       <c r="B120" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="4">
+        <v>12</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E120" s="4">
-        <v>12</v>
       </c>
       <c r="F120" s="4">
         <v>65</v>
@@ -4636,14 +4636,14 @@
       <c r="B121" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="4">
+        <v>12</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E121" s="4">
-        <v>12</v>
       </c>
       <c r="F121" s="4">
         <v>65</v>
@@ -4659,14 +4659,14 @@
       <c r="B122" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E122" s="4">
-        <v>11</v>
       </c>
       <c r="F122" s="4">
         <v>67</v>
@@ -4682,14 +4682,14 @@
       <c r="B123" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="4">
+        <v>19</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E123" s="4">
-        <v>19</v>
       </c>
       <c r="F123" s="4">
         <v>67</v>
@@ -4705,14 +4705,14 @@
       <c r="B124" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="4">
+        <v>20</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E124" s="4">
-        <v>20</v>
       </c>
       <c r="F124" s="4">
         <v>67</v>
@@ -4728,14 +4728,14 @@
       <c r="B125" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="3">
+        <v>21</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E125" s="3">
-        <v>21</v>
       </c>
       <c r="F125" s="3">
         <v>67</v>
@@ -4751,14 +4751,14 @@
       <c r="B126" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="3">
+        <v>12</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E126" s="3">
-        <v>12</v>
       </c>
       <c r="F126" s="3">
         <v>68</v>
@@ -4775,14 +4775,14 @@
       <c r="B127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="3">
+        <v>18</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E127" s="3">
-        <v>18</v>
       </c>
       <c r="F127" s="3">
         <v>68</v>
@@ -4799,14 +4799,14 @@
       <c r="B128" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="17">
+        <v>19</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="E128" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="E128" s="17">
-        <v>19</v>
       </c>
       <c r="F128" s="8">
         <v>68</v>
@@ -4822,14 +4822,14 @@
       <c r="B129" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="4">
+        <v>12</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E129" s="4">
-        <v>12</v>
       </c>
       <c r="F129" s="4">
         <v>68</v>
@@ -4845,14 +4845,14 @@
       <c r="B130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="3">
+        <v>12</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E130" s="3">
-        <v>12</v>
       </c>
       <c r="F130" s="3">
         <v>68</v>
@@ -4868,14 +4868,14 @@
       <c r="B131" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="3">
+        <v>12</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E131" s="3">
-        <v>12</v>
       </c>
       <c r="F131" s="3">
         <v>69</v>
@@ -4891,14 +4891,14 @@
       <c r="B132" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="4">
+        <v>16</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E132" s="4">
-        <v>16</v>
       </c>
       <c r="F132" s="4">
         <v>69</v>
@@ -4914,14 +4914,14 @@
       <c r="B133" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="3">
+        <v>20</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E133" s="3">
-        <v>20</v>
       </c>
       <c r="F133" s="4">
         <v>70</v>
@@ -4937,14 +4937,14 @@
       <c r="B134" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="8">
+        <v>19</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E134" s="8">
-        <v>19</v>
       </c>
       <c r="F134" s="8">
         <v>70</v>
@@ -4960,14 +4960,14 @@
       <c r="B135" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="3">
+        <v>11</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E135" s="3">
-        <v>11</v>
       </c>
       <c r="F135" s="3">
         <v>70</v>
@@ -4983,14 +4983,14 @@
       <c r="B136" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="3">
+        <v>12</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E136" s="3">
-        <v>12</v>
       </c>
       <c r="F136" s="3">
         <v>70</v>
@@ -5006,14 +5006,14 @@
       <c r="B137" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="4">
+        <v>12</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E137" s="4">
-        <v>12</v>
       </c>
       <c r="F137" s="4">
         <v>70</v>
@@ -5029,14 +5029,14 @@
       <c r="B138" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="4">
+        <v>12</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E138" s="4">
-        <v>12</v>
       </c>
       <c r="F138" s="4">
         <v>71</v>
@@ -5052,14 +5052,14 @@
       <c r="B139" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="17">
+        <v>20</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="E139" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="E139" s="17">
-        <v>20</v>
       </c>
       <c r="F139" s="18">
         <v>71</v>
@@ -5075,14 +5075,14 @@
       <c r="B140" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="4">
+        <v>20</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E140" s="4">
-        <v>20</v>
       </c>
       <c r="F140" s="4">
         <v>71</v>
@@ -5098,14 +5098,14 @@
       <c r="B141" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="3">
+        <v>13</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E141" s="3">
-        <v>13</v>
       </c>
       <c r="F141" s="3">
         <v>71</v>
@@ -5121,14 +5121,14 @@
       <c r="B142" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="4">
+        <v>12</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E142" s="4">
-        <v>12</v>
       </c>
       <c r="F142" s="4">
         <v>71</v>
@@ -5144,14 +5144,14 @@
       <c r="B143" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="3">
+        <v>16</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E143" s="3">
-        <v>16</v>
       </c>
       <c r="F143" s="3">
         <v>71</v>
@@ -5167,14 +5167,14 @@
       <c r="B144" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="4">
+        <v>12</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E144" s="4">
-        <v>12</v>
       </c>
       <c r="F144" s="4">
         <v>71</v>
@@ -5190,14 +5190,14 @@
       <c r="B145" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="3">
+        <v>21</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E145" s="3">
-        <v>21</v>
       </c>
       <c r="F145" s="3">
         <v>72</v>
@@ -5213,14 +5213,14 @@
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="11">
+        <v>14</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="E146" s="11">
-        <v>14</v>
       </c>
       <c r="F146" s="11">
         <v>72</v>
@@ -5236,14 +5236,14 @@
       <c r="B147" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="4">
+        <v>12</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E147" s="4">
-        <v>12</v>
       </c>
       <c r="F147" s="4">
         <v>72</v>
@@ -5259,14 +5259,14 @@
       <c r="B148" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="3">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E148" s="3">
-        <v>14</v>
       </c>
       <c r="F148" s="3">
         <f>2006-1933</f>
@@ -5283,14 +5283,14 @@
       <c r="B149" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="18">
+        <v>12</v>
+      </c>
+      <c r="D149" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="E149" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="E149" s="18">
-        <v>12</v>
       </c>
       <c r="F149" s="18">
         <v>73</v>
@@ -5306,14 +5306,14 @@
       <c r="B150" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="4">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E150" s="4">
-        <v>6</v>
       </c>
       <c r="F150" s="4">
         <v>73</v>
@@ -5329,14 +5329,14 @@
       <c r="B151" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="4">
+        <v>14</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E151" s="4">
-        <v>14</v>
       </c>
       <c r="F151" s="4">
         <v>75</v>
@@ -5352,14 +5352,14 @@
       <c r="B152" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="4">
+        <v>15</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E152" s="4">
-        <v>15</v>
       </c>
       <c r="F152" s="4">
         <v>75</v>
@@ -5375,14 +5375,14 @@
       <c r="B153" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="10">
+        <v>12</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E153" s="10">
-        <v>12</v>
       </c>
       <c r="F153" s="10">
         <v>76</v>
@@ -5398,14 +5398,14 @@
       <c r="B154" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="25">
+        <v>20</v>
+      </c>
+      <c r="D154" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="E154" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="E154" s="25">
-        <v>20</v>
       </c>
       <c r="F154" s="25">
         <v>76</v>
@@ -5421,14 +5421,14 @@
       <c r="B155" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="3">
+        <v>16</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="E155" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E155" s="3">
-        <v>16</v>
       </c>
       <c r="F155" s="3">
         <v>77</v>
@@ -5444,14 +5444,14 @@
       <c r="B156" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="4">
+        <v>12</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E156" s="4">
-        <v>12</v>
       </c>
       <c r="F156" s="4">
         <v>77</v>
@@ -5467,14 +5467,14 @@
       <c r="B157" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="3">
+        <v>12</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E157" s="3">
-        <v>12</v>
       </c>
       <c r="F157" s="3">
         <v>78</v>
@@ -5490,14 +5490,14 @@
       <c r="B158" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="3">
+        <v>12</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E158" s="3">
-        <v>12</v>
       </c>
       <c r="F158" s="3">
         <v>78</v>
@@ -5513,14 +5513,14 @@
       <c r="B159" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="8">
+        <v>21</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E159" s="8">
-        <v>21</v>
       </c>
       <c r="F159" s="8">
         <v>79</v>
@@ -5536,14 +5536,14 @@
       <c r="B160" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="4">
+        <v>12</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E160" s="4">
-        <v>12</v>
       </c>
       <c r="F160" s="4">
         <v>79</v>
@@ -5559,14 +5559,14 @@
       <c r="B161" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="4">
+        <v>12</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E161" s="4">
-        <v>12</v>
       </c>
       <c r="F161" s="4">
         <v>79</v>
@@ -5582,14 +5582,14 @@
       <c r="B162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="4">
+        <v>21</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E162" s="4">
-        <v>21</v>
       </c>
       <c r="F162" s="4">
         <v>79</v>
@@ -5605,13 +5605,13 @@
       <c r="B163" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="E163" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
     </row>
@@ -5622,14 +5622,14 @@
       <c r="B164" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="11">
+        <v>13</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="E164" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E164" s="11">
-        <v>13</v>
       </c>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
@@ -5672,14 +5672,14 @@
       <c r="B168" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="11">
+        <v>12</v>
+      </c>
+      <c r="D168" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="E168" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="E168" s="11">
-        <v>12</v>
       </c>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
@@ -5687,8 +5687,8 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="28"/>
       <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="27"/>
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
       <c r="G169" s="25"/>
@@ -5696,8 +5696,8 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="28"/>
       <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="27"/>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
       <c r="G170" s="25"/>
@@ -5705,8 +5705,8 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="28"/>
       <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="27"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
       <c r="G171" s="25"/>
@@ -5714,8 +5714,8 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="28"/>
       <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="27"/>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
       <c r="G172" s="25"/>
@@ -5723,8 +5723,8 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28"/>
       <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="27"/>
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
       <c r="G176" s="25"/>
@@ -5732,8 +5732,8 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
       <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="27"/>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
       <c r="G178" s="25"/>
@@ -10913,7 +10913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405D7A29-4AB5-4465-A53F-68C8A56C7F7D}">
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
